--- a/Documents/Risk Assessments.xlsx
+++ b/Documents/Risk Assessments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2847101-0458-4AC0-ABB6-044C1C2587E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7927B4E7-CB56-4E28-8BED-4486687DB526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Github not working</t>
+  </si>
+  <si>
+    <t>Keep the code on Github Repo</t>
+  </si>
+  <si>
+    <t>No project data on HDD</t>
+  </si>
+  <si>
+    <t>Use github to keep backup of code</t>
+  </si>
+  <si>
+    <t>Accidental deletion of data</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,43 +213,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -336,6 +324,20 @@
         <name val="Franklin Gothic Book"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -357,6 +359,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -603,15 +618,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:H28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory_List_Table" displayName="Inventory_List_Table" ref="B3:H28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Evaluation" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Likelihood" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Impact Level" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsibility" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Response" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Control Measures" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Evaluation" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Likelihood" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Impact Level" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Responsibility" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Response" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Control Measures" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,8 +837,8 @@
   </sheetPr>
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -898,13 +913,13 @@
       <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -925,13 +940,13 @@
       <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -952,13 +967,13 @@
       <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -970,81 +985,131 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1169,10 +1234,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:H28">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>#REF!="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1200,21 +1265,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1426,19 +1491,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F3298A-223B-42B2-9FEF-AB506EA6B5F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE17AD16-C3BD-472A-B362-8A85F95573CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
